--- a/biology/Zoologie/Atlides_inachus/Atlides_inachus.xlsx
+++ b/biology/Zoologie/Atlides_inachus/Atlides_inachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides inachus est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides inachus a été décrit par Pieter Cramer en 1775 sous le nom de Papilio inachus.
-Synonymes : Papilio baeton Sepp, [1829]; Thecla carpophora Hewitson, 1868; Olynthus inachus ; Hübner, [1819]; Thecla inachus ; Hewitson, 1869[1].
-Noms vernaculaires
-Atlides inachus se nomme Spying Hairstreak en anglais[2].
+Synonymes : Papilio baeton Sepp, ; Thecla carpophora Hewitson, 1868; Olynthus inachus ; Hübner, ; Thecla inachus ; Hewitson, 1869.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides inachus est un petit papillon avec une longue et une courte fines queues à chaque aile postérieure. Le dessus de couleur beige est très largement suffusé de bleu turquoise argenté avec aux ailes antérieures près du milieu du bord costal une tache double marron. Le revers est beige avec aux ailes postérieures une partie basale rouge marquée d'un ocelle marron cerné de blanc.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides inachus se nomme Spying Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides inachus est un petit papillon avec une longue et une courte fines queues à chaque aile postérieure. Le dessus de couleur beige est très largement suffusé de bleu turquoise argenté avec aux ailes antérieures près du milieu du bord costal une tache double marron. Le revers est beige avec aux ailes postérieures une partie basale rouge marquée d'un ocelle marron cerné de blanc.
+</t>
         </is>
       </c>
     </row>
@@ -606,12 +627,14 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il réside dans le sud du Mexique, à Panama, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud du Mexique, à Panama, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane,.
 Sur les autres projets Wikimedia :
 Atlides inachus, sur Wikimedia CommonsAtlides inachus, sur Wikispecies
-Biotope</t>
+</t>
         </is>
       </c>
     </row>
@@ -639,7 +662,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
